--- a/biology/Botanique/Graf_Zeppelin_(rose)/Graf_Zeppelin_(rose).xlsx
+++ b/biology/Botanique/Graf_Zeppelin_(rose)/Graf_Zeppelin_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Graf Zeppelin'[1] est un cultivar de rosier grimpant obtenu en 1910 par le rosiériste allemand T. Boehm[2]. Il doit son nom au comte Ferdinand von Zeppelin (1838-1917), inventeur du ballon dirigeable du même nom. Il ne doit pas être confondu avec le cultivar de rhododendron du même nom et celui de phlox blanc à cœur rouge[3] du même nom.
+'Graf Zeppelin' est un cultivar de rosier grimpant obtenu en 1910 par le rosiériste allemand T. Boehm. Il doit son nom au comte Ferdinand von Zeppelin (1838-1917), inventeur du ballon dirigeable du même nom. Il ne doit pas être confondu avec le cultivar de rhododendron du même nom et celui de phlox blanc à cœur rouge du même nom.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un hybride multiflore aux fleurs moyennes d'un rouge tirant sur le rose foncé ; elles sont semi-doubles ou doubles, plutôt plates, et fleurissent en nombreux bouquets. La floraison, très abondante en mai-juin, est légèrement remontante[2]. Son buisson grimpant est vigoureux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un hybride multiflore aux fleurs moyennes d'un rouge tirant sur le rose foncé ; elles sont semi-doubles ou doubles, plutôt plates, et fleurissent en nombreux bouquets. La floraison, très abondante en mai-juin, est légèrement remontante. Son buisson grimpant est vigoureux.
 Sa zone de rusticité est de 6b à 9b.
 La variété 'Graf Zeppelin' est un sport de 'Weigand's Crimson Rambler. On peut l'admirer à l'Europa-Rosarium de Sangerhausen.
 </t>
